--- a/pricer/src/main/resources/files/input/props.xlsx
+++ b/pricer/src/main/resources/files/input/props.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="661">
   <si>
     <t>поставщик+артикул</t>
   </si>
@@ -22,44 +22,2000 @@
     <t>ID с сайта</t>
   </si>
   <si>
-    <t>p0_17185442584</t>
-  </si>
-  <si>
-    <t>p0_17190655514</t>
-  </si>
-  <si>
-    <t>p0_17184058857</t>
-  </si>
-  <si>
-    <t>p0_17184058732</t>
-  </si>
-  <si>
-    <t>p0_17410501732</t>
-  </si>
-  <si>
-    <t>p0_17185444820</t>
-  </si>
-  <si>
-    <t>p0_17185169113</t>
-  </si>
-  <si>
-    <t>p0_17194483</t>
-  </si>
-  <si>
-    <t>p0_17182239900</t>
+    <t>p14_18-45131</t>
+  </si>
+  <si>
+    <t>p14_94001</t>
+  </si>
+  <si>
+    <t>p14_94033</t>
+  </si>
+  <si>
+    <t>p14_YW857104</t>
+  </si>
+  <si>
+    <t>p14_YW858110G</t>
+  </si>
+  <si>
+    <t>p14_YW858161</t>
+  </si>
+  <si>
+    <t>p14_YW858190</t>
+  </si>
+  <si>
+    <t>p14_7-901/03B</t>
+  </si>
+  <si>
+    <t>p14_7-901/01B</t>
+  </si>
+  <si>
+    <t>p14_YW858401</t>
+  </si>
+  <si>
+    <t>p14_REW-K026</t>
+  </si>
+  <si>
+    <t>p14_2338-Q</t>
+  </si>
+  <si>
+    <t>p14_024828</t>
+  </si>
+  <si>
+    <t>p14_510321</t>
+  </si>
+  <si>
+    <t>p14_6707</t>
+  </si>
+  <si>
+    <t>p14_049783</t>
+  </si>
+  <si>
+    <t>p14_031633</t>
+  </si>
+  <si>
+    <t>p14_043331</t>
+  </si>
+  <si>
+    <t>p14_1680804</t>
+  </si>
+  <si>
+    <t>p14_18-31204</t>
+  </si>
+  <si>
+    <t>p14_18-30043</t>
+  </si>
+  <si>
+    <t>p14_18-30025</t>
+  </si>
+  <si>
+    <t>p14_18-30039</t>
+  </si>
+  <si>
+    <t>p14_041962</t>
+  </si>
+  <si>
+    <t>p14_032730</t>
+  </si>
+  <si>
+    <t>p14_038075</t>
+  </si>
+  <si>
+    <t>p14_18-30285</t>
+  </si>
+  <si>
+    <t>p14_18-30278</t>
+  </si>
+  <si>
+    <t>p14_18-30286</t>
+  </si>
+  <si>
+    <t>p14_034934</t>
+  </si>
+  <si>
+    <t>p14_18-30070</t>
+  </si>
+  <si>
+    <t>p14_18-30069</t>
+  </si>
+  <si>
+    <t>p14_94013</t>
+  </si>
+  <si>
+    <t>p14_95031</t>
+  </si>
+  <si>
+    <t>p14_037952</t>
+  </si>
+  <si>
+    <t>p14_049775</t>
+  </si>
+  <si>
+    <t>p14_61120</t>
+  </si>
+  <si>
+    <t>p14_61001</t>
+  </si>
+  <si>
+    <t>p14_61092</t>
+  </si>
+  <si>
+    <t>p14_GPH30271/UA</t>
+  </si>
+  <si>
+    <t>p14_61019</t>
+  </si>
+  <si>
+    <t>p14_61053</t>
+  </si>
+  <si>
+    <t>p14_791578</t>
+  </si>
+  <si>
+    <t>p14_903643</t>
+  </si>
+  <si>
+    <t>p14_817773</t>
+  </si>
+  <si>
+    <t>p14_791943</t>
+  </si>
+  <si>
+    <t>p14_</t>
+  </si>
+  <si>
+    <t>p14_62003</t>
+  </si>
+  <si>
+    <t>p14_CTC-AB</t>
+  </si>
+  <si>
+    <t>p14_61093</t>
+  </si>
+  <si>
+    <t>p14_18-21056</t>
+  </si>
+  <si>
+    <t>p14_18-22115</t>
+  </si>
+  <si>
+    <t>p14_3071Z</t>
+  </si>
+  <si>
+    <t>p14_7326</t>
+  </si>
+  <si>
+    <t>p14_7324</t>
+  </si>
+  <si>
+    <t>p14_820438</t>
+  </si>
+  <si>
+    <t>p14_820421</t>
+  </si>
+  <si>
+    <t>p14_820414/819197</t>
+  </si>
+  <si>
+    <t>p14_820445</t>
+  </si>
+  <si>
+    <t>p14_816783</t>
+  </si>
+  <si>
+    <t>p14_792773</t>
+  </si>
+  <si>
+    <t>p14_793169</t>
+  </si>
+  <si>
+    <t>p14_818350</t>
+  </si>
+  <si>
+    <t>p14_68345</t>
+  </si>
+  <si>
+    <t>p14_68759</t>
+  </si>
+  <si>
+    <t>p14_8802ABC-WBB</t>
+  </si>
+  <si>
+    <t>p14_BX1025Z</t>
+  </si>
+  <si>
+    <t>p14_BX1289Z</t>
+  </si>
+  <si>
+    <t>p14_BX1166</t>
+  </si>
+  <si>
+    <t>p14_BX1120Z</t>
+  </si>
+  <si>
+    <t>p14_11275</t>
+  </si>
+  <si>
+    <t>p14_BX1110Z</t>
+  </si>
+  <si>
+    <t>p14_80-075926</t>
+  </si>
+  <si>
+    <t>p14_18-30261</t>
+  </si>
+  <si>
+    <t>p14_401N</t>
+  </si>
+  <si>
+    <t>p14_401L</t>
+  </si>
+  <si>
+    <t>p14_YW252180</t>
+  </si>
+  <si>
+    <t>p14_LC226020-2</t>
+  </si>
+  <si>
+    <t>p14_LC297050-2</t>
+  </si>
+  <si>
+    <t>p14_7-904/02R</t>
+  </si>
+  <si>
+    <t>p14_LC258880-6</t>
+  </si>
+  <si>
+    <t>p14_LC258840</t>
+  </si>
+  <si>
+    <t>p14_LC296840</t>
+  </si>
+  <si>
+    <t>p14_LC258050-4</t>
+  </si>
+  <si>
+    <t>p14_LC296040</t>
+  </si>
+  <si>
+    <t>p14_LC297010</t>
+  </si>
+  <si>
+    <t>p14_LC258120-2</t>
+  </si>
+  <si>
+    <t>p14_7-903/01R</t>
+  </si>
+  <si>
+    <t>p14_YW858230</t>
+  </si>
+  <si>
+    <t>p14_BX1155</t>
+  </si>
+  <si>
+    <t>p14_BX1170Z</t>
+  </si>
+  <si>
+    <t>p14_80-121826</t>
+  </si>
+  <si>
+    <t>p14_BX1148Z</t>
+  </si>
+  <si>
+    <t>p14_037432</t>
+  </si>
+  <si>
+    <t>p14_050195</t>
+  </si>
+  <si>
+    <t>p14_80-065326</t>
+  </si>
+  <si>
+    <t>p14_80-113626</t>
+  </si>
+  <si>
+    <t>p14_80-113426</t>
+  </si>
+  <si>
+    <t>p14_043000</t>
+  </si>
+  <si>
+    <t>p14_11205</t>
+  </si>
+  <si>
+    <t>p14_80-061670</t>
+  </si>
+  <si>
+    <t>p14_BX1022Z</t>
+  </si>
+  <si>
+    <t>p14_80-104426</t>
+  </si>
+  <si>
+    <t>p14_80-069226</t>
+  </si>
+  <si>
+    <t>p14_10985</t>
+  </si>
+  <si>
+    <t>p14_11255</t>
+  </si>
+  <si>
+    <t>p14_80-069326</t>
+  </si>
+  <si>
+    <t>p14_051201</t>
+  </si>
+  <si>
+    <t>p14_50180R</t>
+  </si>
+  <si>
+    <t>p14_53010R</t>
+  </si>
+  <si>
+    <t>p14_50140 r</t>
+  </si>
+  <si>
+    <t>p14_50170R</t>
+  </si>
+  <si>
+    <t>p14_048983</t>
+  </si>
+  <si>
+    <t>p14_95011</t>
+  </si>
+  <si>
+    <t>p14_18-30262</t>
+  </si>
+  <si>
+    <t>p14_18-30263</t>
+  </si>
+  <si>
+    <t>p14_033928</t>
+  </si>
+  <si>
+    <t>p14_026633</t>
+  </si>
+  <si>
+    <t>p14_031666</t>
+  </si>
+  <si>
+    <t>p14_037697</t>
+  </si>
+  <si>
+    <t>p14_043653</t>
+  </si>
+  <si>
+    <t>p14_034918</t>
+  </si>
+  <si>
+    <t>p14_037499</t>
+  </si>
+  <si>
+    <t>p14_043067</t>
+  </si>
+  <si>
+    <t>p14_046706</t>
+  </si>
+  <si>
+    <t>p14_56014</t>
+  </si>
+  <si>
+    <t>p14_18-26003</t>
+  </si>
+  <si>
+    <t>p14_CT10-108-7/2</t>
+  </si>
+  <si>
+    <t>p14_94007</t>
+  </si>
+  <si>
+    <t>p14_94056</t>
+  </si>
+  <si>
+    <t>p14_94262</t>
+  </si>
+  <si>
+    <t>p14_96771</t>
+  </si>
+  <si>
+    <t>p14_94131</t>
+  </si>
+  <si>
+    <t>p14_BX1043Z</t>
+  </si>
+  <si>
+    <t>p14_YW860010-0</t>
+  </si>
+  <si>
+    <t>p14_YW856611-2</t>
+  </si>
+  <si>
+    <t>p14_92263</t>
+  </si>
+  <si>
+    <t>p14_11485</t>
+  </si>
+  <si>
+    <t>p14_REW-K008</t>
+  </si>
+  <si>
+    <t>p14_24439</t>
+  </si>
+  <si>
+    <t>p14_BT2431Z</t>
+  </si>
+  <si>
+    <t>p14_0945S</t>
+  </si>
+  <si>
+    <t>p14_BX1231Z</t>
+  </si>
+  <si>
+    <t>p14_BBPAW</t>
+  </si>
+  <si>
+    <t>p14_Т56874</t>
+  </si>
+  <si>
+    <t>p14_Т57644</t>
+  </si>
+  <si>
+    <t>p14_NA01116</t>
+  </si>
+  <si>
+    <t>p14_NA01076</t>
+  </si>
+  <si>
+    <t>p14_052845</t>
+  </si>
+  <si>
+    <t>p14_Т57573</t>
+  </si>
+  <si>
+    <t>p14_Т57623</t>
+  </si>
+  <si>
+    <t>p14_Т54947</t>
+  </si>
+  <si>
+    <t>p14_Т57587</t>
+  </si>
+  <si>
+    <t>p14_033423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_REW-K044 </t>
+  </si>
+  <si>
+    <t>p14_11235</t>
+  </si>
+  <si>
+    <t>p14_15561</t>
+  </si>
+  <si>
+    <t>p14_20835</t>
+  </si>
+  <si>
+    <t>p14_20827</t>
+  </si>
+  <si>
+    <t>p14_20832</t>
+  </si>
+  <si>
+    <t>p14_15560</t>
+  </si>
+  <si>
+    <t>p14_1680798</t>
+  </si>
+  <si>
+    <t>p14_19068</t>
+  </si>
+  <si>
+    <t>p14_15558</t>
+  </si>
+  <si>
+    <t>p14_05523</t>
+  </si>
+  <si>
+    <t>p14_15562</t>
+  </si>
+  <si>
+    <t>p14_05868</t>
+  </si>
+  <si>
+    <t>p14_56008</t>
+  </si>
+  <si>
+    <t>p14_56033</t>
+  </si>
+  <si>
+    <t>p14_56034</t>
+  </si>
+  <si>
+    <t>p14_56109</t>
+  </si>
+  <si>
+    <t>p14_56064</t>
+  </si>
+  <si>
+    <t>p14_56035</t>
+  </si>
+  <si>
+    <t>p14_BX1096</t>
+  </si>
+  <si>
+    <t>p14_BX1230Z</t>
+  </si>
+  <si>
+    <t>p14_038992</t>
+  </si>
+  <si>
+    <t>p14_041954</t>
+  </si>
+  <si>
+    <t>p14_BX1048Z</t>
+  </si>
+  <si>
+    <t>p14_BT2428Z</t>
+  </si>
+  <si>
+    <t>p14_BT2433Z</t>
+  </si>
+  <si>
+    <t>p14_017673</t>
+  </si>
+  <si>
+    <t>p14_BT2417Z</t>
+  </si>
+  <si>
+    <t>p14_64001</t>
+  </si>
+  <si>
+    <t>p14_049734</t>
+  </si>
+  <si>
+    <t>p14_64008</t>
+  </si>
+  <si>
+    <t>p14_052704</t>
+  </si>
+  <si>
+    <t>p14_82040R</t>
+  </si>
+  <si>
+    <t>p14_88402</t>
+  </si>
+  <si>
+    <t>p14_88268</t>
+  </si>
+  <si>
+    <t>p14_88024-2</t>
+  </si>
+  <si>
+    <t>p14_88026-2</t>
+  </si>
+  <si>
+    <t>p14_88361</t>
+  </si>
+  <si>
+    <t>p14_88349</t>
+  </si>
+  <si>
+    <t>p14_88345</t>
+  </si>
+  <si>
+    <t>p14_BX1327Z</t>
+  </si>
+  <si>
+    <t>p14_95042</t>
+  </si>
+  <si>
+    <t>p14_95051</t>
+  </si>
+  <si>
+    <t>p14_BX1367Z</t>
+  </si>
+  <si>
+    <t>p14_051169</t>
+  </si>
+  <si>
+    <t>p14_BT2430Z</t>
+  </si>
+  <si>
+    <t>p14_BT2426Z</t>
+  </si>
+  <si>
+    <t>p14_TT-DI20</t>
+  </si>
+  <si>
+    <t>p14_TT-DI22</t>
+  </si>
+  <si>
+    <t>p14_051193</t>
+  </si>
+  <si>
+    <t>p14_92061</t>
+  </si>
+  <si>
+    <t>p14_051664</t>
+  </si>
+  <si>
+    <t>p14_029645</t>
+  </si>
+  <si>
+    <t>p14_049908</t>
+  </si>
+  <si>
+    <t>p14_049577</t>
+  </si>
+  <si>
+    <t>p14_051706</t>
+  </si>
+  <si>
+    <t>p14_049767</t>
+  </si>
+  <si>
+    <t>p14_049759</t>
+  </si>
+  <si>
+    <t>p14_051698</t>
+  </si>
+  <si>
+    <t>p14_61106</t>
+  </si>
+  <si>
+    <t>p14_61070</t>
+  </si>
+  <si>
+    <t>p14_61208</t>
+  </si>
+  <si>
+    <t>p14_61071</t>
+  </si>
+  <si>
+    <t>p14_95511</t>
+  </si>
+  <si>
+    <t>p14_61153</t>
+  </si>
+  <si>
+    <t>p14_88025-12</t>
+  </si>
+  <si>
+    <t>p14_88023-7</t>
+  </si>
+  <si>
+    <t>p14_88353</t>
+  </si>
+  <si>
+    <t>p14_64006</t>
+  </si>
+  <si>
+    <t>p14_62011</t>
+  </si>
+  <si>
+    <t>p14_62009</t>
+  </si>
+  <si>
+    <t>p14_TDV105</t>
+  </si>
+  <si>
+    <t>p14_049742</t>
+  </si>
+  <si>
+    <t>p14_YW857201</t>
+  </si>
+  <si>
+    <t>p14_047670</t>
+  </si>
+  <si>
+    <t>p14_1423153</t>
+  </si>
+  <si>
+    <t>p14_1422942</t>
+  </si>
+  <si>
+    <t>p14_3081MTZ</t>
+  </si>
+  <si>
+    <t>p14_3070Z</t>
+  </si>
+  <si>
+    <t>p14_3091Z</t>
+  </si>
+  <si>
+    <t>p14_3099Z</t>
+  </si>
+  <si>
+    <t>p14_3067Z</t>
+  </si>
+  <si>
+    <t>p14_REW-K001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_REW-K007 </t>
+  </si>
+  <si>
+    <t>p14_7368</t>
+  </si>
+  <si>
+    <t>p14_820698</t>
+  </si>
+  <si>
+    <t>p14_819869</t>
+  </si>
+  <si>
+    <t>p14_951576</t>
+  </si>
+  <si>
+    <t>p14_951415</t>
+  </si>
+  <si>
+    <t>p14_YW859110-6</t>
+  </si>
+  <si>
+    <t>p14_YW859120-6</t>
+  </si>
+  <si>
+    <t>p14_BX1294Z</t>
+  </si>
+  <si>
+    <t>p14_96306</t>
+  </si>
+  <si>
+    <t>p14_91813</t>
+  </si>
+  <si>
+    <t>p14_11125</t>
+  </si>
+  <si>
+    <t>p14_CT12-426-1</t>
+  </si>
+  <si>
+    <t>p14_SB-14-19</t>
+  </si>
+  <si>
+    <t>p14_10575</t>
+  </si>
+  <si>
+    <t>p14_1422970</t>
+  </si>
+  <si>
+    <t>p14_AD4701</t>
+  </si>
+  <si>
+    <t>p14_AD5301</t>
+  </si>
+  <si>
+    <t>p14_AD8001S</t>
+  </si>
+  <si>
+    <t>p14_AD2001</t>
+  </si>
+  <si>
+    <t>p14_BX1254Z</t>
+  </si>
+  <si>
+    <t>p14_17118</t>
+  </si>
+  <si>
+    <t>p14_TDV110</t>
+  </si>
+  <si>
+    <t>p14_24312</t>
+  </si>
+  <si>
+    <t>p14_28875</t>
+  </si>
+  <si>
+    <t>p14_92242</t>
+  </si>
+  <si>
+    <t>p14_049890</t>
+  </si>
+  <si>
+    <t>p14_052365</t>
+  </si>
+  <si>
+    <t>p14_10765</t>
+  </si>
+  <si>
+    <t>p14_052357</t>
+  </si>
+  <si>
+    <t>p14_051185</t>
+  </si>
+  <si>
+    <t>p14_10915</t>
+  </si>
+  <si>
+    <t>p14_BX1223Z</t>
+  </si>
+  <si>
+    <t>p14_11365</t>
+  </si>
+  <si>
+    <t>p14_051573</t>
+  </si>
+  <si>
+    <t>p14_029900</t>
+  </si>
+  <si>
+    <t>p14_044602</t>
+  </si>
+  <si>
+    <t>p14_049460</t>
+  </si>
+  <si>
+    <t>p14_BT2408Z</t>
+  </si>
+  <si>
+    <t>p14_BT2404Z</t>
+  </si>
+  <si>
+    <t>p14_BT2407Z</t>
+  </si>
+  <si>
+    <t>p14_BX1119Z</t>
+  </si>
+  <si>
+    <t>p14_10635</t>
+  </si>
+  <si>
+    <t>p14_024753</t>
+  </si>
+  <si>
+    <t>p14_029595</t>
+  </si>
+  <si>
+    <t>p14_051292</t>
+  </si>
+  <si>
+    <t>p14_BX1368Z</t>
+  </si>
+  <si>
+    <t>p14_041244</t>
+  </si>
+  <si>
+    <t>p14_051672</t>
+  </si>
+  <si>
+    <t>p14_11185</t>
+  </si>
+  <si>
+    <t>p14_11585</t>
+  </si>
+  <si>
+    <t>p14_11795</t>
+  </si>
+  <si>
+    <t>p14_11135</t>
+  </si>
+  <si>
+    <t>p14_11655</t>
+  </si>
+  <si>
+    <t>p14_55030R</t>
+  </si>
+  <si>
+    <t>p14_HW98021-AR</t>
+  </si>
+  <si>
+    <t>p14_31010R</t>
+  </si>
+  <si>
+    <t>p14_80040R</t>
+  </si>
+  <si>
+    <t>p14_82020R</t>
+  </si>
+  <si>
+    <t>p14_820353</t>
+  </si>
+  <si>
+    <t>p14_1680807</t>
+  </si>
+  <si>
+    <t>p14_96901</t>
+  </si>
+  <si>
+    <t>p14_95151</t>
+  </si>
+  <si>
+    <t>p14_95016</t>
+  </si>
+  <si>
+    <t>p14_CT12-435-1-2</t>
+  </si>
+  <si>
+    <t>p14_18-31248</t>
+  </si>
+  <si>
+    <t>p14_18-31301</t>
+  </si>
+  <si>
+    <t>p14_18-30277</t>
+  </si>
+  <si>
+    <t>p14_Т56810</t>
+  </si>
+  <si>
+    <t>p14_Т57576</t>
+  </si>
+  <si>
+    <t>p14_051763</t>
+  </si>
+  <si>
+    <t>p14_041566</t>
+  </si>
+  <si>
+    <t>p14_038067</t>
+  </si>
+  <si>
+    <t>p14_037366</t>
+  </si>
+  <si>
+    <t>p14_052266</t>
+  </si>
+  <si>
+    <t>p14_049304</t>
+  </si>
+  <si>
+    <t>p14_052738</t>
+  </si>
+  <si>
+    <t>p14_032656</t>
+  </si>
+  <si>
+    <t>p14_051771</t>
+  </si>
+  <si>
+    <t>p14_050880</t>
+  </si>
+  <si>
+    <t>p14_029041</t>
+  </si>
+  <si>
+    <t>p14_049825</t>
+  </si>
+  <si>
+    <t>p14_052795</t>
+  </si>
+  <si>
+    <t>p14_REW-K003</t>
+  </si>
+  <si>
+    <t>p14_REW-K002</t>
+  </si>
+  <si>
+    <t>p14_REW-K060</t>
+  </si>
+  <si>
+    <t>p14_REW-K062</t>
+  </si>
+  <si>
+    <t>p14_Т57645</t>
+  </si>
+  <si>
+    <t>p14_044792</t>
+  </si>
+  <si>
+    <t>p14_ВС-5-6</t>
+  </si>
+  <si>
+    <t>p14_ВС-11-12-13</t>
+  </si>
+  <si>
+    <t>p14_ВС-22-23</t>
+  </si>
+  <si>
+    <t>p14_57406</t>
+  </si>
+  <si>
+    <t>p14_F150AB-1</t>
+  </si>
+  <si>
+    <t>p14_158-13-2</t>
+  </si>
+  <si>
+    <t>Авто конструктор Mercedes Benz CL550</t>
+  </si>
+  <si>
+    <t>Боевой транспорт с фигуркой серии Черепашки-Ниндзя Мотоцикл Стелс</t>
+  </si>
+  <si>
+    <t>Боевой транспорт серии Черепашки Ниндзя Багги для Лео и Дона</t>
+  </si>
+  <si>
+    <t>Вертолет на ИК управлении Dark Stealth</t>
+  </si>
+  <si>
+    <t>Вертолет на ИК управлении Lightening Falcon</t>
+  </si>
+  <si>
+    <t>Вертолет на ИК управлении Navigator круиз контроль</t>
+  </si>
+  <si>
+    <t>Вертолет на ИК управлении Phantom Forward контроль высоты</t>
+  </si>
+  <si>
+    <t>Вертолет на ИК управлении с пультом перчаткой Falcon</t>
+  </si>
+  <si>
+    <t>Вертолет на ИК управлении с пультом перчаткой Raptor</t>
+  </si>
+  <si>
+    <t>Вертолет радиоуправляемый Exploiter S</t>
+  </si>
+  <si>
+    <t>Говорящая ручка Знаток ІІ поколения без чипа</t>
+  </si>
+  <si>
+    <t>Детский конструктор Зоо шестеренки</t>
+  </si>
+  <si>
+    <t>Детское пианино Оркестр мишки Тэдди</t>
+  </si>
+  <si>
+    <t>Домик Minilalaloopsy Цветочный коттедж</t>
+  </si>
+  <si>
+    <t>Игровая детская палатка Disney Тачки</t>
+  </si>
+  <si>
+    <t>Игровая панель Автошкола со звуком и светом</t>
+  </si>
+  <si>
+    <t>Игровая панель Водитель</t>
+  </si>
+  <si>
+    <t>Игровая панель Спайдермен водитель</t>
+  </si>
+  <si>
+    <t>Игровой набор My Little Pony Кейс стилиста Пинки Пай</t>
+  </si>
+  <si>
+    <t>Игровой набор Гараж Ferrari</t>
+  </si>
+  <si>
+    <t>Игровой набор Гараж Пожарная станция</t>
+  </si>
+  <si>
+    <t>Игровой набор Гараж</t>
+  </si>
+  <si>
+    <t>Игровой набор Железная дорога</t>
+  </si>
+  <si>
+    <t>Игровой набор Загородный домик</t>
+  </si>
+  <si>
+    <t>Игровой набор Пиратский корабль</t>
+  </si>
+  <si>
+    <t>Игровой набор серии GoGears Двойная петля</t>
+  </si>
+  <si>
+    <t>Игровой набор серии GoGears Невероятная Петля</t>
+  </si>
+  <si>
+    <t>Игровой набор серии GoGears Стремительный тоннель</t>
+  </si>
+  <si>
+    <t>Игровой набор Танцующая ферма</t>
+  </si>
+  <si>
+    <t>Игровой набор Трек Скоростная петля 2 полосы</t>
+  </si>
+  <si>
+    <t>Игровой набор Трек Скоростная петля</t>
+  </si>
+  <si>
+    <t>Игровой набор Фургон Черепашек Нинзя</t>
+  </si>
+  <si>
+    <t>Игровой набор Черепашки Ниндзя Раскладная пицца дом</t>
+  </si>
+  <si>
+    <t>Игровой центр Музыкальное дерево</t>
+  </si>
+  <si>
+    <t>Игровой центр Мультикуб со светом и звуком</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка Бани фотограф</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка За мной Бани</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка Макс моя первая собачка</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка Обезьянка Кокос</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка Прятки с Бани</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка Танцующая Мими</t>
+  </si>
+  <si>
+    <t>Интерактивная кукла Бэби Аннабель Baby Annabell</t>
+  </si>
+  <si>
+    <t>Интерактивная кукла Chou Chou Мой первый зубик</t>
+  </si>
+  <si>
+    <t>Интерактивная кукла My Little Baby Born Нежный сон</t>
+  </si>
+  <si>
+    <t>Интерактивная кукла Бэби Аннабель Первые движения</t>
+  </si>
+  <si>
+    <t>Интерактивная машинка для куклы Baby Born, свет, звук. Арт. 815786</t>
+  </si>
+  <si>
+    <t>Интерактивный игровой набор Озорной пеликан Ouaps</t>
+  </si>
+  <si>
+    <t>Интерактивный игровой набор Angry Birds Меткие птички</t>
+  </si>
+  <si>
+    <t>Интерактивный набор Бани Железная дорога</t>
+  </si>
+  <si>
+    <t>Коллекционная автомодель Porsche Cayenne Turbo</t>
+  </si>
+  <si>
+    <t>Коллекционная автомодель Renault Megane Trophy</t>
+  </si>
+  <si>
+    <t>Конструктор бристл Bristle Blocks Семья</t>
+  </si>
+  <si>
+    <t>Конструктор Электрические машины</t>
+  </si>
+  <si>
+    <t>Конструктор Энергия ветра</t>
+  </si>
+  <si>
+    <t>Кукла Baby Born Волшебная принцесса</t>
+  </si>
+  <si>
+    <t>Кукла Baby Born Доктор</t>
+  </si>
+  <si>
+    <t>Кукла Baby Born Очаровательная малышка</t>
+  </si>
+  <si>
+    <t>Кукла Baby Born Очаровательный малыш</t>
+  </si>
+  <si>
+    <t>Кукла Baby Born Балерина</t>
+  </si>
+  <si>
+    <t>Кукла My First Baby Annabell Моя первая малышка</t>
+  </si>
+  <si>
+    <t>Кукла My First Baby Annabell Пупсик</t>
+  </si>
+  <si>
+    <t>Кукла My Little Беби Борн Мальчик Веселое купание</t>
+  </si>
+  <si>
+    <t>Лодка надувная  Seahawk</t>
+  </si>
+  <si>
+    <t>Матрац для отдыха Classic</t>
+  </si>
+  <si>
+    <t>Матрац-кровать для отдыха — DELUXE, Intex. Арт. 67738</t>
+  </si>
+  <si>
+    <t>Металлическая модель Стройтехника XL</t>
+  </si>
+  <si>
+    <t>Музыкальная игрушка Котофон</t>
+  </si>
+  <si>
+    <t>Музыкальная игрушка Леопард</t>
+  </si>
+  <si>
+    <t>Музыкальная игрушка Пес гитарист</t>
+  </si>
+  <si>
+    <t>Музыкальная игрушка Симфония</t>
+  </si>
+  <si>
+    <t>Музыкальный мобиль Магнитофон Куки</t>
+  </si>
+  <si>
+    <t>Набор доктора Будьте здоровы</t>
+  </si>
+  <si>
+    <t>Обучающий компьютер Молния Маккуин</t>
+  </si>
+  <si>
+    <t>Паркинг серии GoGears Скоростной подъем</t>
+  </si>
+  <si>
+    <t>Песочница-стол  Веселая стройка</t>
+  </si>
+  <si>
+    <t>Песочница-стол Тихая гавань</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль ARMY 86</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Chevrolet Silverado 2500HD</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Crusher с пультом перчаткой</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Dodge Challenger SRT8</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Lamborghini - LP560-4 Gallardo Police</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Lamborghini Aventador LP 700-4</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Lamborghini Sesto Elemento</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Mitsubishi 2006 Dakar Pajero Evolution Rally</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Porsche Cayenne TurboS</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый автомобиль Wild Wolf с пультом перчаткой</t>
+  </si>
+  <si>
+    <t>Радиоуправляемый вертолет Gravlty-Z</t>
+  </si>
+  <si>
+    <t>Развивающая деревянная игрушка Разноцветный лабиринт</t>
+  </si>
+  <si>
+    <t>Развивающая деревянная игрушка Шум дождя</t>
+  </si>
+  <si>
+    <t>Развивающая игра Атлас Молнии Маккуина</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Веселые виражи</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Веселый жирафик</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Веселый оркестр</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Горшочек Винни</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка для ванной Подводная лодка</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка для ванной Черепаха</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Забавные насекомые</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка кубик Играем с Куки</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Медвежонок Эльфи</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Микрофон со звуком</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Телефон Молния Маккуин</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Телефон Принцессы</t>
+  </si>
+  <si>
+    <t>Развивающий коврик Кошки-Мышки</t>
+  </si>
+  <si>
+    <t>Развивающий коврик Куки и друзья</t>
+  </si>
+  <si>
+    <t>Развивающий компьютер Золушка</t>
+  </si>
+  <si>
+    <t>Развивающий центр Домик умницы</t>
+  </si>
+  <si>
+    <t>Робот трансформер BMW Z4</t>
+  </si>
+  <si>
+    <t>Робот трансформер Kawasaki Ninja ZX-12R</t>
+  </si>
+  <si>
+    <t>Робот трансформер Lamborghini Murcielago</t>
+  </si>
+  <si>
+    <t>Робот трансформер Mustang FR500C</t>
+  </si>
+  <si>
+    <t>Складной трехколесный велосипед Минни Маус</t>
+  </si>
+  <si>
+    <t>Супер набор Черепашки Ниндзя Секретный штаб</t>
+  </si>
+  <si>
+    <t>Трек GoGears Захватывающие гонки</t>
+  </si>
+  <si>
+    <t>Трек GoGears Крутой вираж</t>
+  </si>
+  <si>
+    <t>Чудомобиль Винни Пух 3 в 1</t>
+  </si>
+  <si>
+    <t>Чудомобиль Винни Пух с оркестром</t>
+  </si>
+  <si>
+    <t>Чудомобиль Принцесса свет, звук</t>
+  </si>
+  <si>
+    <t>Чудомобиль Принцесса 3 в  со светом и звуком</t>
+  </si>
+  <si>
+    <t>Чудомобиль Принцессы Волшебницы свет, звук</t>
+  </si>
+  <si>
+    <t>Чудомобиль Самолет Микки свет и звук</t>
+  </si>
+  <si>
+    <t>Чудомобиль Самолет Тигры</t>
+  </si>
+  <si>
+    <t>Чудомобиль Гонщик Молния Маккуин</t>
+  </si>
+  <si>
+    <t>Чудомобиль Молния Маккуин три в одном</t>
+  </si>
+  <si>
+    <t>Игровой набор SHOPKINS S2 Холодильник</t>
+  </si>
+  <si>
+    <t>Автомодель Ferrari 458 Italia</t>
+  </si>
+  <si>
+    <t>Автомодель Камаз Фура Авторалли</t>
+  </si>
+  <si>
+    <t>Боевой транспорт с фигуркой серии Черепашки Ниндзя Субмарина Дона</t>
+  </si>
+  <si>
+    <t>Боевой транспорт серии Черепашки Ниндзя Газонокосилка</t>
+  </si>
+  <si>
+    <t>Боевой транспорт трансформер Черепашки ниндзя Байк</t>
+  </si>
+  <si>
+    <t>Боевой транспорт Фургон с фигуркой серии Малыши Черепашки Ниндзя</t>
+  </si>
+  <si>
+    <t>Боевой транспорт Черепашек Ниндзя на ИК управлении</t>
+  </si>
+  <si>
+    <t>Большой набор для творчества Поп-Арт</t>
+  </si>
+  <si>
+    <t>Вертолет Volce Control на ИК управлении c голосовыми командами</t>
+  </si>
+  <si>
+    <t>Вертолет на ИК управлении Stalker</t>
+  </si>
+  <si>
+    <t>Водное оружие серии Черепашки Ниндзя Нунчаки Микеланджело</t>
+  </si>
+  <si>
+    <t>Гибкая дуга для коляски Цветные шарики</t>
+  </si>
+  <si>
+    <t>Говорящая азбука Знаток Весела абетка</t>
+  </si>
+  <si>
+    <t>Деревянная игра Королевское домино Пеппы</t>
+  </si>
+  <si>
+    <t>Детский конструктор Архитектор</t>
+  </si>
+  <si>
+    <t>Детский конструктор Деревянные чудеса</t>
+  </si>
+  <si>
+    <t>Детский набор для уборки Тропики</t>
+  </si>
+  <si>
+    <t>Детский развивающий планшетный компьютер Умный медвежонок</t>
+  </si>
+  <si>
+    <t>Детский самокат Angry Birds</t>
+  </si>
+  <si>
+    <t>Детский самокат Peppa</t>
+  </si>
+  <si>
+    <t>Детский скутер Power Jumper 200</t>
+  </si>
+  <si>
+    <t>Детский скутер Wide Deck 200</t>
+  </si>
+  <si>
+    <t>Детский скутер Холодное сердце</t>
+  </si>
+  <si>
+    <t>Детский трехколесный велосипед Peppa с массажным сиденьем</t>
+  </si>
+  <si>
+    <t>Детский трехколесный самокат Peppa</t>
+  </si>
+  <si>
+    <t>Детский трехколесный самокат Winx</t>
+  </si>
+  <si>
+    <t>Детский трехколесный скутер Hot Wheels</t>
+  </si>
+  <si>
+    <t>Детское пианино Зверята на качелях</t>
+  </si>
+  <si>
+    <t>Звуковой плакат Знаток Живая география</t>
+  </si>
+  <si>
+    <t>Игровая панель для коляски За рулем</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Веселый кемпинг</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Дом Пеппы</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Идем в школу</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Космический корабль Пеппы</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Кухня Пеппы</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Машина Пеппы</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Морское приключение</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa Пожарная машинка Пеппы</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa серии Принцесса Замок Пеппы</t>
+  </si>
+  <si>
+    <t>Игровой набор Peppa серии Принцесса Королевская карета</t>
+  </si>
+  <si>
+    <t>Игровой набор Shopkins S1 Супермаркет</t>
+  </si>
+  <si>
+    <t>Игровой набор Shopkins S3 Магазин косметики</t>
+  </si>
+  <si>
+    <t>Игровой набор Shopkins S3 Обувной бутик</t>
+  </si>
+  <si>
+    <t>Игровой набор Shopkins S3 серии Вкусняшки Капкейки</t>
+  </si>
+  <si>
+    <t>Игровой набор Shopkins S3 Тележка</t>
+  </si>
+  <si>
+    <t>Игровой набор Shopkins S3 Фургончик с мороженым</t>
+  </si>
+  <si>
+    <t>Игровой набор для рисования Мольберт Альберт</t>
+  </si>
+  <si>
+    <t>Игровой набор Добрый доктор i-Болит</t>
+  </si>
+  <si>
+    <t>Игровой набор Дом моей мечты</t>
+  </si>
+  <si>
+    <t>Игровой набор Железная дорога со светом и звуком</t>
+  </si>
+  <si>
+    <t>Игровой набор Забавный автопарк</t>
+  </si>
+  <si>
+    <t>Игровой набор Званый ужин</t>
+  </si>
+  <si>
+    <t>Игровой набор Магнитная рыбалка Делюкс</t>
+  </si>
+  <si>
+    <t>Игровой набор Маленький доктор</t>
+  </si>
+  <si>
+    <t>Игровой набор Музыкальный сервиз</t>
+  </si>
+  <si>
+    <t>Игровой набор Мягкий боулинг</t>
+  </si>
+  <si>
+    <t>Игровой набор Ноев Ковчег</t>
+  </si>
+  <si>
+    <t>Игровой набор Озорные утята</t>
+  </si>
+  <si>
+    <t>Игровой набор Паровоз Лимпопо со светом и звуком</t>
+  </si>
+  <si>
+    <t>Игровой набор Роботы трансформеры</t>
+  </si>
+  <si>
+    <t>Игровой набор с интерактивной птичкой DigiBirds Аттракцион Розы</t>
+  </si>
+  <si>
+    <t>Игровой набор с интерактивной птичкой DigiBirds Бумбокс</t>
+  </si>
+  <si>
+    <t>Игровой набор с интерактивной птичкой DigiBirds Искорка</t>
+  </si>
+  <si>
+    <t>Игровой набор с интерактивной птичкой DigiBirds</t>
+  </si>
+  <si>
+    <t>Игровой набор с интерактивной совой DigiOwls Лесной домик Лейси</t>
+  </si>
+  <si>
+    <t>Игровой набор с интерактивным пингвином DigiPenguins Тэйлор на сцене</t>
+  </si>
+  <si>
+    <t>Игровой набор с интерактивным пингвином DigiPenguins</t>
+  </si>
+  <si>
+    <t>Игровой набор Самосвал разбирай-ка с дрелью</t>
+  </si>
+  <si>
+    <t>Игровой набор серии Черепашек Ниндзя Скоростной спуск</t>
+  </si>
+  <si>
+    <t>Игровой набор серии Черепашки Ниндзя Экстремальный спуск</t>
+  </si>
+  <si>
+    <t>Игровой набор Сказочный пикник</t>
+  </si>
+  <si>
+    <t>Игровой набор Трактор Сафари</t>
+  </si>
+  <si>
+    <t>Игровой набор Чайная вечеринка</t>
+  </si>
+  <si>
+    <t>Игровой набор Чемоданчик врача</t>
+  </si>
+  <si>
+    <t>Игровой трек Парк динозавров 3D реальность Трицератопс</t>
+  </si>
+  <si>
+    <t>Игровой трек серии Парк динозавров 3D реальность Птерозавр</t>
+  </si>
+  <si>
+    <t>Игровой центр Мультицентр</t>
+  </si>
+  <si>
+    <t>Игрушечное оружие серии Черепашки Ниндзя Электронный меч Леонардо</t>
+  </si>
+  <si>
+    <t>Игрушка для ванной Веселые фонтанчики</t>
+  </si>
+  <si>
+    <t>Игрушка для ванной Лодочка</t>
+  </si>
+  <si>
+    <t>Игрушка для ванной Подводная лодка</t>
+  </si>
+  <si>
+    <t>Игрушка каталка Дельфин</t>
+  </si>
+  <si>
+    <t>Игрушка каталка Львенок</t>
+  </si>
+  <si>
+    <t>Игрушка каталка Пеликан затейник</t>
+  </si>
+  <si>
+    <t>Игрушка каталка Слон циркач</t>
+  </si>
+  <si>
+    <t>Игрушка каталка Слоник</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка для ванной Бани лови волну</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка для ванной Мими и Волшебная лодка листок</t>
+  </si>
+  <si>
+    <t>Интерактивная игрушка Телефон Бани</t>
+  </si>
+  <si>
+    <t>Интерактивная музыкальная игрушка книжка Поющая бабочка Мими</t>
+  </si>
+  <si>
+    <t>Интерактивная мягкая игрушка серии Черепашки Ниндзя Леонардо</t>
+  </si>
+  <si>
+    <t>Интерактивная погремушка для ванной Черепашка</t>
+  </si>
+  <si>
+    <t>Интерактивная птичка DigiBirds Снежинка со свистком</t>
+  </si>
+  <si>
+    <t>Интерактивная птичка DigiBirds Фиалка с клеткой и свистком</t>
+  </si>
+  <si>
+    <t>Интерактивная сова DigiOwls</t>
+  </si>
+  <si>
+    <t>Интерактивный игровой набор Мягкие городки</t>
+  </si>
+  <si>
+    <t>Интерактивный игровой набор Озорной щенок</t>
+  </si>
+  <si>
+    <t>Интерактивный игровой набор Разумная пчела</t>
+  </si>
+  <si>
+    <t>Интерактивный робот Discorobo</t>
+  </si>
+  <si>
+    <t>Каталка сортер Черепаха знайка</t>
+  </si>
+  <si>
+    <t>Квадрокоптер радиоуправляемый Thunder-x</t>
+  </si>
+  <si>
+    <t>Квадромобиль Молния Маккуин свет звук</t>
+  </si>
+  <si>
+    <t>Коляска Peppa для кукол Веселая прогулка</t>
+  </si>
+  <si>
+    <t>Коляска люлька Peppa для кукол Классик</t>
+  </si>
+  <si>
+    <t>Конструктор бристл Bristle Blocks Строитель в кейсе</t>
+  </si>
+  <si>
+    <t>Конструктор бристл Bristle Blocks Строитель</t>
+  </si>
+  <si>
+    <t>Конструктор бристл Джунгли</t>
+  </si>
+  <si>
+    <t>Конструктор Знаток 999 схем</t>
+  </si>
+  <si>
+    <t>Конструктор Знаток Школа</t>
+  </si>
+  <si>
+    <t>Конструктор Оптические эксперименты</t>
+  </si>
+  <si>
+    <t>Кукла Baby Born Феечка</t>
+  </si>
+  <si>
+    <t>Кукла My Little Baby Born Пупсик</t>
+  </si>
+  <si>
+    <t>Кукла манекен My Model Визажист</t>
+  </si>
+  <si>
+    <t>Кукла манекен My Model Стилист</t>
+  </si>
+  <si>
+    <t>Летающий шар на ИК управлении Aero Spin</t>
+  </si>
+  <si>
+    <t>Летающий шар на ИК управлении Парящий Аватар</t>
+  </si>
+  <si>
+    <t>Магнитная доска для рисования Рафаэль</t>
+  </si>
+  <si>
+    <t>Мега Фигурка Лео серии Малыши Черепашки Ниндзя</t>
+  </si>
+  <si>
+    <t>Мега Фигурка серии Черепашки Ниндзя Леонардо</t>
+  </si>
+  <si>
+    <t>Мини мобиль для коляски Океан</t>
+  </si>
+  <si>
+    <t>Модель БТР-80 со звуком и светом</t>
+  </si>
+  <si>
+    <t>Модель Военный корабль со светом и звуком</t>
+  </si>
+  <si>
+    <t>Музыкальная дуга для коляски Цыпленок</t>
+  </si>
+  <si>
+    <t>Набор аксессуаров Peppa для кукол Делюкс</t>
+  </si>
+  <si>
+    <t>Набор для рисования водой Волшебная сумочка</t>
+  </si>
+  <si>
+    <t>Набор для рисования водой Волшебные рисунки</t>
+  </si>
+  <si>
+    <t>Набор для рисования водой Волшебные штампы</t>
+  </si>
+  <si>
+    <t>Набор для рисования водой Волшебный портфель</t>
+  </si>
+  <si>
+    <t>Набор для творчества Поп-Арт</t>
+  </si>
+  <si>
+    <t>Набор для творчества серии Вязание Модный дизайнер</t>
+  </si>
+  <si>
+    <t>Набор с интерактивным роботом Discorobo Энди диджей</t>
+  </si>
+  <si>
+    <t>Набор фигурок Peppa Пеппа и ее друзья</t>
+  </si>
+  <si>
+    <t>Набор фигурок Peppa серии Принцесса Королевская семья</t>
+  </si>
+  <si>
+    <t>Надувная груша для бокса серии Черепашки Ниндзя</t>
+  </si>
+  <si>
+    <t>Развивающая грушка Гиппопотам жонглер</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка каталка Аккуратный жираф</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка кубик Забавные зверушки</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Музыкальный паровоз</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка на присоске Цветик</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка на присоске Цветочная карусель</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Первый смартфон</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Пирамидка Куки</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Пирамидка Пчелка</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Погремушка Жираф</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Пожарная машина</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Слон жонглер</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Сортер Пирамидка 2 в 1</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка сортер Умный куб</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Цветная пирамидка</t>
+  </si>
+  <si>
+    <t>Развивающая игрушка Юла Мандаринка</t>
+  </si>
+  <si>
+    <t>Развивающая книжка раскладушка Большие приключения</t>
+  </si>
+  <si>
+    <t>Развивающая музыкальная игрушка Трактор с трейлером</t>
+  </si>
+  <si>
+    <t>Развивающая музыкальная юла Веселые непоседы</t>
+  </si>
+  <si>
+    <t>Развивающая музыкальная юла Карусель</t>
+  </si>
+  <si>
+    <t>Развивающие мягкие кубики сортеры ABC</t>
+  </si>
+  <si>
+    <t>Развивающий игровой набор Домашние животные</t>
+  </si>
+  <si>
+    <t>Развивающий игровой набор Ферма лабиринт</t>
+  </si>
+  <si>
+    <t>Развивающий коврик Времена года</t>
+  </si>
+  <si>
+    <t>Развивающий коврик с подушечкой Синяя река</t>
+  </si>
+  <si>
+    <t>Развивающий музыкальный центр Сонная сова 2 в 1</t>
+  </si>
+  <si>
+    <t>Развивающий центр для автомобиля За рулем</t>
+  </si>
+  <si>
+    <t>Развивающий центр для кроватки Веселые друзья</t>
+  </si>
+  <si>
+    <t>Робот трансформер V Create Hummer</t>
+  </si>
+  <si>
+    <t>Робот трансформер Джамбобот</t>
+  </si>
+  <si>
+    <t>Робот трансформер Джамботанк</t>
+  </si>
+  <si>
+    <t>Робот трансформер Пожарная машина</t>
+  </si>
+  <si>
+    <t>Робот трансформер Самолет Воин</t>
+  </si>
+  <si>
+    <t>Рюкзак кенгуру для куклы Baby Born</t>
+  </si>
+  <si>
+    <t>Салон красоты My Little Pony</t>
+  </si>
+  <si>
+    <t>Супер набор Малыши Черепашки Ниндзя Штаб квартира</t>
+  </si>
+  <si>
+    <t>Супер набор серии Черепашки Ниндзя Мутации Леонардо Трансформер</t>
+  </si>
+  <si>
+    <t>Супер набор серии Черепашки Ниндзя Секретная штаб квартира</t>
+  </si>
+  <si>
+    <t>Танк Т-90 со светом и звуком</t>
+  </si>
+  <si>
+    <t>Трек Ferrari Скоростной прыжок</t>
+  </si>
+  <si>
+    <t>Трек GoGears Ferrari Двойная петля</t>
+  </si>
+  <si>
+    <t>Трек GoGears с трамплином Скоростной прыжок</t>
+  </si>
+  <si>
+    <t>Трехколесный детский самокат Winx</t>
+  </si>
+  <si>
+    <t>Трехколесный самокат Peppa</t>
+  </si>
+  <si>
+    <t>Чудокачалка Музыкальный Львенок</t>
+  </si>
+  <si>
+    <t>Чудокачалка Музыкальный Пони</t>
+  </si>
+  <si>
+    <t>Чудокачалка Пони Принцессы 2 в 1</t>
+  </si>
+  <si>
+    <t>Чудокачалка Поющий Пони 2 в 1</t>
+  </si>
+  <si>
+    <t>Чудомобиль Доктор Плюшева</t>
+  </si>
+  <si>
+    <t>Чудомобиль мини Минни Маус</t>
+  </si>
+  <si>
+    <t>Чудомобиль мини Холодное Сердце</t>
+  </si>
+  <si>
+    <t>Чудомобиль Первое авто Винни</t>
+  </si>
+  <si>
+    <t>Чудомобиль Принцесса София три в одном</t>
+  </si>
+  <si>
+    <t>Чудомобиль Принцесса София</t>
+  </si>
+  <si>
+    <t>Чудомобиль Пчелиный улей</t>
+  </si>
+  <si>
+    <t>Чудомобиль Самолет Дасти</t>
+  </si>
+  <si>
+    <t>Чудомобиль Холодное Сердце</t>
+  </si>
+  <si>
+    <t>Электронный конструктор Знаток 180 схем</t>
+  </si>
+  <si>
+    <t>Электронный конструктор Знаток 320 схем</t>
+  </si>
+  <si>
+    <t>Электронный конструктор Знаток Первые шаги в электронике</t>
+  </si>
+  <si>
+    <t>Детский самокат Hot Wheels</t>
+  </si>
+  <si>
+    <t>Чудомобиль История игрушек</t>
+  </si>
+  <si>
+    <t>Детский комод пеленатор Слим</t>
+  </si>
+  <si>
+    <t>Детский комод пеленатор</t>
+  </si>
+  <si>
+    <t>Детский комод</t>
+  </si>
+  <si>
+    <t>Надувной детский бассейн</t>
+  </si>
+  <si>
+    <t>Веломобиль Double</t>
+  </si>
+  <si>
+    <t>Каталка Smart Car</t>
+  </si>
+  <si>
+    <t>название</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,8 +2038,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,96 +2350,3692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>110011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <v>42386883</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>110012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>42726287</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>110013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>32122550</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>110014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="2">
+        <v>31861176</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>110015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="2">
+        <v>31862677</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>110016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="2">
+        <v>31863518</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>110017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="2">
+        <v>31864200</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>110018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="2">
+        <v>42714402</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>110019</v>
+      <c r="B10" s="2">
+        <v>42716947</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31864913</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>30741398</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>32308529</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>33118246</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30525830</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>57684111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>32810771</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>32811700</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33132789</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>68769185</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31866417</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>31968023</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42594405</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>31973808</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>30841292</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30841963</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30843530</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42598451</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42601595</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42605644</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>32815693</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31980010</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>31978622</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>30522426</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>32123435</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>33112275</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>33113443</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>31140294</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>31142851</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>31143230</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>30523033</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>31144025</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>31146420</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9250712</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>57082540</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>30676192</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>30675259</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9251844</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1937210</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>30743223</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>31149535</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42713708</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42710645</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <v>147363379</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>30740510</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2">
+        <v>30740892</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2">
+        <v>57083802</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2">
+        <v>57221291</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2">
+        <v>57224441</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2">
+        <v>57227206</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9250274</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2">
+        <v>33058817</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2">
+        <v>57665930</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <v>53395489</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1937029</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1936938</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1936962</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>32075703</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>32345024</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>30748620</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>32634190</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>30840077</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>13340893</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>32758727</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>32181518</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>32069673</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1936540</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1936557</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42380625</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>31738831</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>31744691</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42717773</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>31733310</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>31737523</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>31860105</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>31734037</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>31746229</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>31748970</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>31737151</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42722929</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42382872</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>32760702</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>32761591</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>32175772</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>32762447</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>33115170</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>33120311</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>22457495</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>32192918</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>32194203</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>33071556</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>149024864</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
+        <v>22456413</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
+        <v>32763279</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>22466294</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2">
+        <v>32187958</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>13339427</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>13338605</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>22457993</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>33061890</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>32210830</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>32286252</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>32287160</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>32287576</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>30845404</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>22413245</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>31982442</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>31989062</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2002756</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2002777</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2002843</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2002856</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2002875</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2002893</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2002909</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>30848588</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>30994088</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>264144864</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>145771324</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
+        <v>194584785</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
+        <v>69139932</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <v>69569671</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
+        <v>196544451</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
+        <v>117811677</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
+        <v>69134286</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
+        <v>80036327</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
+        <v>68758467</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2">
+        <v>117772622</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2">
+        <v>69570521</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2">
+        <v>148961272</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2">
+        <v>79202552</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2">
+        <v>119460996</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2">
+        <v>147224076</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2">
+        <v>79760192</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2">
+        <v>145840482</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2">
+        <v>69597367</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2">
+        <v>80881386</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
+        <v>119902116</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
+        <v>80872537</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
+        <v>119877216</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2">
+        <v>80399436</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2">
+        <v>80880435</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2">
+        <v>119911884</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2">
+        <v>80888640</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2">
+        <v>80884992</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2">
+        <v>118806034</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2">
+        <v>79204697</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
+        <v>80623506</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2">
+        <v>69122635</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2">
+        <v>69127097</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2">
+        <v>69127791</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2">
+        <v>69130329</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2">
+        <v>69131224</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2">
+        <v>117889721</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2">
+        <v>69132117</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2">
+        <v>69133021</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
+        <v>145781101</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2">
+        <v>194596326</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2">
+        <v>194592796</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2">
+        <v>194606024</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2">
+        <v>194613506</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2">
+        <v>194624802</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
+        <v>195912005</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
+        <v>195896053</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
+        <v>195902459</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
+        <v>145824182</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>79761520</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
+        <v>118185380</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
+        <v>148426251</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
+        <v>79764396</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
+        <v>147307110</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
+        <v>147232360</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
+        <v>118775538</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
+        <v>147308695</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
+        <v>119410665</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
+        <v>118186968</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
+        <v>119422385</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>148385116</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>79496691</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>196608121</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
+        <v>196612960</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
+        <v>118180553</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
+        <v>117910006</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
+        <v>196615743</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
+        <v>197387576</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
+        <v>197381400</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
+        <v>79771103</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
+        <v>69588881</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
+        <v>69591739</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2">
+        <v>79766162</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2">
+        <v>118190098</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2">
+        <v>147310221</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2">
+        <v>147332200</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2">
+        <v>197425178</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2">
+        <v>197396744</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2">
+        <v>118191531</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2">
+        <v>69575786</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2">
+        <v>118821798</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2">
+        <v>118829454</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2">
+        <v>118831926</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2">
+        <v>118201962</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2">
+        <v>200084565</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2">
+        <v>118209774</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2">
+        <v>118212950</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2">
+        <v>200091199</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2">
+        <v>80610247</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2">
+        <v>80609539</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2">
+        <v>80612571</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2">
+        <v>80613826</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2">
+        <v>69579102</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2">
+        <v>80610776</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2">
+        <v>118181937</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2">
+        <v>118184465</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2">
+        <v>197376746</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2">
+        <v>80611910</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2">
+        <v>80616242</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2">
+        <v>80618602</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2">
+        <v>199308876</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2">
+        <v>118753857</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2">
+        <v>79186047</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2">
+        <v>30847533</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2">
+        <v>117895813</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2">
+        <v>117900533</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2">
+        <v>148334502</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2">
+        <v>148352811</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2">
+        <v>148280354</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2">
+        <v>148314958</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2">
+        <v>80057239</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2">
+        <v>258464444</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2">
+        <v>79454025</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2">
+        <v>79199117</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2">
+        <v>201808482</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2">
+        <v>79189590</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2">
+        <v>201843173</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2">
+        <v>201846149</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2">
+        <v>194569681</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2">
+        <v>68757236</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2">
+        <v>80044355</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2">
+        <v>117866356</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2">
+        <v>196562326</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2">
+        <v>80625199</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2">
+        <v>68767297</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2">
+        <v>194588259</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2">
+        <v>80637090</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2">
+        <v>117908365</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2">
+        <v>79533660</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2">
+        <v>79535496</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2">
+        <v>79536721</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2">
+        <v>199370222</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2">
+        <v>80018350</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2">
+        <v>199377164</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2">
+        <v>199334334</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" s="2">
+        <v>69133450</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2">
+        <v>194599731</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" s="2">
+        <v>69571363</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2">
+        <v>148404292</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2">
+        <v>200080467</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2">
+        <v>149022492</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2">
+        <v>200099489</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2">
+        <v>148419901</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2">
+        <v>148987640</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2">
+        <v>80051991</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" s="2">
+        <v>149001162</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2">
+        <v>118817666</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" s="2">
+        <v>118821160</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2">
+        <v>119392691</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2">
+        <v>200031131</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2">
+        <v>145895214</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" s="2">
+        <v>145877890</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" s="2">
+        <v>145863269</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" s="2">
+        <v>80038484</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" s="2">
+        <v>149038831</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" s="2">
+        <v>200052174</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" s="2">
+        <v>118763065</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" s="2">
+        <v>118767886</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2">
+        <v>80046840</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" s="2">
+        <v>148369953</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" s="2">
+        <v>200030174</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" s="2">
+        <v>119520621</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" s="2">
+        <v>119860226</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" s="2">
+        <v>148969673</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" s="2">
+        <v>148963124</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" s="2">
+        <v>149053598</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2">
+        <v>199349500</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2">
+        <v>79501111</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2">
+        <v>79514077</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2">
+        <v>79521737</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2">
+        <v>79494419</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" s="2">
+        <v>145806742</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" s="2">
+        <v>63988491</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" s="2">
+        <v>117868069</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" s="2">
+        <v>196601324</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" s="2">
+        <v>196593494</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2">
+        <v>68766800</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" s="2">
+        <v>68763056</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2">
+        <v>68765096</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" s="2">
+        <v>68764408</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308" s="2">
+        <v>119932687</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" s="2">
+        <v>119921255</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" s="2">
+        <v>80454875</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" s="2">
+        <v>80460751</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312" s="2">
+        <v>80462054</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" s="2">
+        <v>80609246</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" s="2">
+        <v>80400013</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" s="2">
+        <v>80409598</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" s="2">
+        <v>80450421</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" s="2">
+        <v>200100095</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318" s="2">
+        <v>80413699</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319" s="2">
+        <v>80412814</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320" s="2">
+        <v>80421870</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321" s="2">
+        <v>80446628</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322" s="2">
+        <v>80447448</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323" s="2">
+        <v>79470679</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2">
+        <v>79484064</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325" s="2">
+        <v>79491067</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2">
+        <v>79492561</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2">
+        <v>80882656</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2">
+        <v>30992324</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329" s="2">
+        <v>17793291</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330" s="2">
+        <v>17793245</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331" s="2">
+        <v>17793176</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332" s="2">
+        <v>6095384</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333" s="2">
+        <v>18857560</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334" s="2">
+        <v>18860853</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>
